--- a/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
+++ b/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jferg\Class12Capstone\Self_Learning_Testcases_and_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4360827F-F7CB-4995-8A96-BE514B8113A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A227C44-EA18-44D6-893D-7FD74EA2F697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Test Steps</t>
   </si>
@@ -82,15 +82,9 @@
     <t>Wireshark application opens</t>
   </si>
   <si>
-    <t>click start capture button</t>
-  </si>
-  <si>
     <t>Wireshark starts to capture packets</t>
   </si>
   <si>
-    <t>Open http://clinic.doveryai-no-proveryai.com:9966/petclinic/swagger-ui.html and login as Username= admin Password= admin</t>
-  </si>
-  <si>
     <t>Website opens and logs in</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Look for password showing in plain text</t>
   </si>
   <si>
-    <t>Packet didn’t show password but we received the JSESSION ID</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AC5TC1: Packet sniffing api</t>
   </si>
   <si>
@@ -181,12 +172,6 @@
     <t>Username and password shouldn't appear</t>
   </si>
   <si>
-    <t>Username and password appeared in plain text</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AC6 : Use API to verify user information</t>
   </si>
   <si>
@@ -200,6 +185,21 @@
   </si>
   <si>
     <t>enter Username= admin  Password= admin</t>
+  </si>
+  <si>
+    <t>Select Wi-Fi</t>
+  </si>
+  <si>
+    <t>Wi-Fi connection will be highlighted</t>
+  </si>
+  <si>
+    <t>Click start capture button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open http://clinic.doveryai-no-proveryai.com:9966/petclinic/swagger-ui.html </t>
+  </si>
+  <si>
+    <t>Login as Username= admin Password= admin</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +266,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9EDF4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,17 +408,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +450,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>503577</xdr:rowOff>
+      <xdr:rowOff>160677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,16 +491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123658</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>403058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -535,8 +529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105900" y="6191250"/>
-          <a:ext cx="10058400" cy="3463758"/>
+          <a:off x="9124950" y="6886575"/>
+          <a:ext cx="10058400" cy="3470108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,8 +549,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -591,6 +585,189 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2255062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Wireshark Icon - 400x400 PNG Download - PNGkit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB051A7E-0372-4208-9F4C-0A88595FE9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3819525" y="2905125"/>
+          <a:ext cx="496112" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2178862</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Wireshark Icon - 400x400 PNG Download - PNGkit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3A134D-B9BE-4EA7-B0F7-E12ADC4B837D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3743325" y="13677900"/>
+          <a:ext cx="492937" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2248712</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>415925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Wireshark Icon - 400x400 PNG Download - PNGkit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139DC494-D499-450D-8E1E-2DAD6C93D527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="8305800"/>
+          <a:ext cx="496112" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -861,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7403B371-1F45-47AE-A3BA-31B379391E41}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,49 +1054,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -940,7 +1101,7 @@
     </row>
     <row r="9" spans="1:5" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -952,356 +1113,404 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:5" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
       <c r="B25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
     <row r="31" spans="1:5" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="36" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -1377,7 +1586,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1402,27 +1611,27 @@
     <row r="11" spans="1:5" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>54</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
-      <c r="B13" s="18" t="s">
-        <v>56</v>
+      <c r="B13" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -1431,7 +1640,7 @@
     <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -1440,14 +1649,14 @@
     <row r="15" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
+++ b/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jferg\Class12Capstone\Self_Learning_Testcases_and_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A227C44-EA18-44D6-893D-7FD74EA2F697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83756B-D63E-48E9-9AD3-5EDFCCF4C180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Test Steps</t>
   </si>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7403B371-1F45-47AE-A3BA-31B379391E41}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,7 +1214,9 @@
         <v>42</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1349,7 +1351,9 @@
         <v>44</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1503,7 +1507,9 @@
         <v>47</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>

--- a/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
+++ b/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jferg\Class12Capstone\Self_Learning_Testcases_and_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83756B-D63E-48E9-9AD3-5EDFCCF4C180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E3846-94D8-4E45-8C25-F02ADC98DD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AC5" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>Test Steps</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Login as Username= admin Password= admin</t>
+  </si>
+  <si>
+    <t>Find http with GET  packet right click follow tcp stream</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,7 +1475,7 @@
     <row r="45" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>24</v>

--- a/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
+++ b/Self_Learning_Testcases_and_results/Capstone_Self_Learning_Test_Cases_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jferg\Class12Capstone\Self_Learning_Testcases_and_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E3846-94D8-4E45-8C25-F02ADC98DD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF4F3B-4F4F-4680-A049-D384FCBE0EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AC5" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>Test Steps</t>
   </si>
@@ -203,6 +203,27 @@
   </si>
   <si>
     <t>Find http with GET  packet right click follow tcp stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the same computer open Wireshark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the computer 1 with Capture Mode enabled open Wireshark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On computer 2 a separate computer Open http://clinic.doveryai-no-proveryai.com:9966/petclinic/swagger-ui.html </t>
+  </si>
+  <si>
+    <t>Computer 1</t>
+  </si>
+  <si>
+    <t>Computer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC5TC3.1: Packet sniffing api and using 64 decode</t>
+  </si>
+  <si>
+    <t>Inconclusive</t>
   </si>
 </sst>
 </file>
@@ -273,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,11 +388,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,6 +492,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +548,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>160677</xdr:rowOff>
     </xdr:to>
@@ -775,6 +872,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496112" cy="292100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Wireshark Icon - 400x400 PNG Download - PNGkit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AAC64B-78BA-46F4-B80F-0253006BD7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3740150" y="13677900"/>
+          <a:ext cx="496112" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1041,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7403B371-1F45-47AE-A3BA-31B379391E41}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1053,6 +1206,7 @@
     <col min="2" max="2" width="35.6328125" customWidth="1"/>
     <col min="3" max="3" width="24.54296875" customWidth="1"/>
     <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1382,7 +1536,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>17</v>
@@ -1521,9 +1675,182 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
     </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="23"/>
+      <c r="B56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="20"/>
+      <c r="B58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="20"/>
+      <c r="B60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="20"/>
+      <c r="B61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="20"/>
+      <c r="B62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="20"/>
+      <c r="B63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="21"/>
+      <c r="B64" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A53:A54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
